--- a/biology/Médecine/Noramidopyrine/Noramidopyrine.xlsx
+++ b/biology/Médecine/Noramidopyrine/Noramidopyrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La noramidopyrine, dipyrone ou métamizole selon la dénomination commune internationale (DCI) est un dérivé de la pyrazolone agissant comme antipyrétique et offrant des propriétés analgésiques et spasmolytiques modérées. Il n’exerce pas d’effet anti-inflammatoire[2].
+La noramidopyrine, dipyrone ou métamizole selon la dénomination commune internationale (DCI) est un dérivé de la pyrazolone agissant comme antipyrétique et offrant des propriétés analgésiques et spasmolytiques modérées. Il n’exerce pas d’effet anti-inflammatoire.
 </t>
         </is>
       </c>
@@ -512,15 +524,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La noramidopyrine a été synthétisée puis commercialisée par les laboratoires Hoechst en 1922 sous les noms de spécialité de Novalgin, Neo-Novalgin, Baralgan ou Baralgin, et Melubrin[3],[4].
-Le médicament trouve rapidement son indication pour des syndromes douloureux variés : maux de tête, douleurs dentaires, articulaires, dorsolombaires, neurologiques et même abdomino-génitales[3].
-Les premiers cas d'agranulocytose sont déclarés dans les années 1930[5].
-La molécule fait l'objet d'une mise en garde des prescripteurs en 1964 au Canada[6], est retirée du marché pour usage humain en 1977 aux États-Unis[7].
-Autres dénominations
-Dipyrone
-Métamizole</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La noramidopyrine a été synthétisée puis commercialisée par les laboratoires Hoechst en 1922 sous les noms de spécialité de Novalgin, Neo-Novalgin, Baralgan ou Baralgin, et Melubrin,.
+Le médicament trouve rapidement son indication pour des syndromes douloureux variés : maux de tête, douleurs dentaires, articulaires, dorsolombaires, neurologiques et même abdomino-génitales.
+Les premiers cas d'agranulocytose sont déclarés dans les années 1930.
+La molécule fait l'objet d'une mise en garde des prescripteurs en 1964 au Canada, est retirée du marché pour usage humain en 1977 aux États-Unis.
+</t>
         </is>
       </c>
     </row>
@@ -545,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Indications</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fortes douleurs et forte fièvre ne répondant pas aux autres mesures, comme par exemple pour le traitement d'une colique néphrétique.
-</t>
+          <t>Autres dénominations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dipyrone
+Métamizole</t>
         </is>
       </c>
     </row>
@@ -576,14 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Contre-indications</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Insuffisance cardiaque, hépatique ou rénale grave
-Affections hématologiques
-Usage chez l’enfant</t>
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortes douleurs et forte fièvre ne répondant pas aux autres mesures, comme par exemple pour le traitement d'une colique néphrétique.
+</t>
         </is>
       </c>
     </row>
@@ -608,12 +627,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Insuffisance cardiaque, hépatique ou rénale grave
+Affections hématologiques
+Usage chez l’enfant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Noramidopyrine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Noramidopyrine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Toxicité hématologique grave (ex. : agranulocytose)[8]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Toxicité hématologique grave (ex. : agranulocytose)
 Crise de porphyrie
 Réactions allergiques pouvant aller jusqu’au choc anaphylactique
 Syndrome de Lyell
@@ -621,34 +676,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Noramidopyrine</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Noramidopyrine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Effets sur les animaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisée à visée antispasmodique et antalgique dans des spécialités (Buscopan) pour des animaux comme le veau, le chien ou le cheval, la noramidopyrine risque de provoquer des troubles médullaires et hématologiques (aplasie médullaire) chez le cheval[9].
-Son usage est interdit en Europe pour des animaux dont le lait pourrait être destiné à la consommation humaine[10][source insuffisante].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Utilisée à visée antispasmodique et antalgique dans des spécialités (Buscopan) pour des animaux comme le veau, le chien ou le cheval, la noramidopyrine risque de provoquer des troubles médullaires et hématologiques (aplasie médullaire) chez le cheval.
+Son usage est interdit en Europe pour des animaux dont le lait pourrait être destiné à la consommation humaine[source insuffisante].
 </t>
         </is>
       </c>
